--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 4 (26, 33, 36, 49, 2)/MDD 1 (43, 3, 19, 7, 1)/ANN_128nodes_Uniform0.05Virtual_Control(26, 33, 36, 49, 2)_MDD(43, 3, 19, 7, 1)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 4 (26, 33, 36, 49, 2)/MDD 1 (43, 3, 19, 7, 1)/ANN_128nodes_Uniform0.05Virtual_Control(26, 33, 36, 49, 2)_MDD(43, 3, 19, 7, 1)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999990372298567</v>
+        <v>0.9999997662573199</v>
       </c>
       <c r="E2">
-        <v>0.9999990372298567</v>
+        <v>0.9999997662573199</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.991188152558815</v>
+        <v>0.9881130429213031</v>
       </c>
       <c r="E3">
-        <v>0.991188152558815</v>
+        <v>0.9881130429213031</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9987911763233539</v>
+        <v>0.9999611323063281</v>
       </c>
       <c r="E4">
-        <v>0.9987911763233539</v>
+        <v>0.9999611323063281</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.000429190193930925</v>
+        <v>3.233928126591932E-06</v>
       </c>
       <c r="E5">
-        <v>0.000429190193930925</v>
+        <v>3.233928126591932E-06</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1.691497422278043E-05</v>
+        <v>2.043481267501852E-07</v>
       </c>
       <c r="E6">
-        <v>1.691497422278043E-05</v>
+        <v>2.043481267501852E-07</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999999996516</v>
+        <v>0.9999999999971303</v>
       </c>
       <c r="E7">
-        <v>3.483879851273741E-13</v>
+        <v>2.869704474051105E-12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9994879927534739</v>
+        <v>0.9999899470418858</v>
       </c>
       <c r="E8">
-        <v>0.0005120072465261138</v>
+        <v>1.005295811418172E-05</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999628310790977</v>
+        <v>0.9999999562022234</v>
       </c>
       <c r="E9">
-        <v>3.71689209023307E-05</v>
+        <v>4.379777662766315E-08</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.99999999999998</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1.998401444325282E-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9999999982480374</v>
+        <v>3.514926314992929E-08</v>
       </c>
       <c r="E11">
-        <v>1.751962575013977E-09</v>
+        <v>0.9999999648507368</v>
       </c>
       <c r="F11">
-        <v>2.530421257019043</v>
+        <v>4.702038764953613</v>
       </c>
       <c r="G11">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
